--- a/Budget2022.xlsx
+++ b/Budget2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/lillekat.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46E948B-EA94-4F43-A071-AFD0413AE121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81870118-63F4-2E4F-B0A5-FDE2B9BE6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -81,10 +81,16 @@
     <t>I alt</t>
   </si>
   <si>
-    <t>Til faktura</t>
-  </si>
-  <si>
     <t>Levering</t>
+  </si>
+  <si>
+    <t>6+CF</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -295,11 +301,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -338,6 +429,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,16 +762,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117A488-0249-9540-9962-645D5D55DAA6}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -692,7 +802,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -712,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>4</v>
@@ -868,14 +978,150 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="A12" s="23"/>
+      <c r="B12" s="29">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="31">
+        <f>95*B12</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="29">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="29">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>4</v>
+      </c>
+      <c r="D14" s="31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="29">
+        <v>2</v>
+      </c>
+      <c r="C15" s="30">
+        <v>5</v>
+      </c>
+      <c r="D15" s="31">
+        <f>130*B15</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="29">
+        <v>2</v>
+      </c>
+      <c r="C17" s="30">
+        <v>10</v>
+      </c>
+      <c r="D17" s="31">
+        <f>105*B17</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30">
+        <v>12</v>
+      </c>
+      <c r="D18" s="31">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="29">
+        <v>2</v>
+      </c>
+      <c r="C19" s="30">
+        <v>13</v>
+      </c>
+      <c r="D19" s="31">
+        <f>110*B19</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="29">
+        <v>2</v>
+      </c>
+      <c r="C20" s="30">
+        <v>24</v>
+      </c>
+      <c r="D20" s="31">
+        <f>130*B20</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <v>29</v>
+      </c>
+      <c r="D21" s="35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="36">
+        <f>SUM(B12:B21)</f>
+        <v>14</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38">
+        <f>SUM(D12:D21)</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Budget2022.xlsx
+++ b/Budget2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/lillekat.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81870118-63F4-2E4F-B0A5-FDE2B9BE6D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E22D2BA-434B-DA47-8294-21D751068782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -423,19 +423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -448,6 +436,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117A488-0249-9540-9962-645D5D55DAA6}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,28 +781,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -914,14 +914,14 @@
         <v>44645</v>
       </c>
       <c r="C7" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="4">
         <f>C7/3</f>
-        <v>16.666666666666668</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="F7" s="9">
         <v>120</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="H7" s="10">
         <f>F7*E7+G7</f>
-        <v>2050</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -974,154 +974,295 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22">
         <f>SUM(H4:H8)</f>
-        <v>4550</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
-      <c r="B12" s="29">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="26">
         <v>1</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="27">
         <f>95*B12</f>
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="29">
+      <c r="B13" s="25">
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="27">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="29">
+      <c r="B14" s="25">
         <v>1</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="26">
         <v>4</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="27">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="29">
+      <c r="B15" s="25">
         <v>2</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="26">
         <v>5</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="27">
         <f>130*B15</f>
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="29">
+      <c r="B16" s="25">
         <v>1</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="27">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="29">
+      <c r="B17" s="25">
         <v>2</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="26">
         <v>10</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="27">
         <f>105*B17</f>
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>1</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="26">
         <v>12</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="27">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="29">
+      <c r="B19" s="25">
         <v>2</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="26">
         <v>13</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="27">
         <f>110*B19</f>
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="29">
+      <c r="B20" s="25">
         <v>2</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="26">
         <v>24</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="27">
         <f>130*B20</f>
         <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="33">
+      <c r="B21" s="29">
         <v>1</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="30">
         <v>29</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="31">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="32">
         <f>SUM(B12:B21)</f>
         <v>14</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34">
         <f>SUM(D12:D21)</f>
         <v>1680</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="27">
+        <f>95*B25</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="25">
+        <v>1</v>
+      </c>
+      <c r="C26" s="26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="25">
+        <v>2</v>
+      </c>
+      <c r="C27" s="26">
+        <v>4</v>
+      </c>
+      <c r="D27" s="27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="25">
+        <v>3</v>
+      </c>
+      <c r="C28" s="26">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27">
+        <f>130*B28</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="25">
+        <v>1</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="25">
+        <v>3</v>
+      </c>
+      <c r="C30" s="26">
+        <v>10</v>
+      </c>
+      <c r="D30" s="27">
+        <f>105*B30</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="25">
+        <v>2</v>
+      </c>
+      <c r="C31" s="26">
+        <v>12</v>
+      </c>
+      <c r="D31" s="27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="25">
+        <v>3</v>
+      </c>
+      <c r="C32" s="26">
+        <v>13</v>
+      </c>
+      <c r="D32" s="27">
+        <f>110*B32</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="25">
+        <v>2</v>
+      </c>
+      <c r="C33" s="26">
+        <v>24</v>
+      </c>
+      <c r="D33" s="27">
+        <f>130*B33</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="29">
+        <v>1</v>
+      </c>
+      <c r="C34" s="30">
+        <v>29</v>
+      </c>
+      <c r="D34" s="31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="32">
+        <f>SUM(B25:B34)</f>
+        <v>19</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34">
+        <f>SUM(D25:D34)</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Budget2022.xlsx
+++ b/Budget2022.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/lillekat.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rakul/Desktop/SWU/work/lillekat.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E22D2BA-434B-DA47-8294-21D751068782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00353BCC-FA0F-F540-BF11-AA98C175EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25520" windowHeight="14900" activeTab="1" xr2:uid="{D1CCE3FA-2749-BB47-B79F-67BB4C56A698}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>Lillekat 2022 budget</t>
   </si>
@@ -91,16 +92,41 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>Lillekat2022-06</t>
+  </si>
+  <si>
+    <t>Lillekat2022-07</t>
+  </si>
+  <si>
+    <t>Lillekat2022-08</t>
+  </si>
+  <si>
+    <t>Lillekat2022-09</t>
+  </si>
+  <si>
+    <t>Lillekat2022-10</t>
+  </si>
+  <si>
+    <t>Lillekat2022-11</t>
+  </si>
+  <si>
+    <t>Lillekat 2023 budget</t>
+  </si>
+  <si>
+    <t>Støtte søgt (rundet ned)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;kr.&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +151,13 @@
       <color theme="1"/>
       <name val="Georgia Pro"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -387,10 +420,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -448,8 +482,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -764,15 +808,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117A488-0249-9540-9962-645D5D55DAA6}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
@@ -838,8 +882,8 @@
       <c r="C4" s="3">
         <v>70</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+      <c r="D4" s="3">
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -864,8 +908,8 @@
       <c r="C5" s="8">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="3">
+        <v>51</v>
       </c>
       <c r="E5" s="4">
         <f>C5/3</f>
@@ -892,8 +936,8 @@
       <c r="C6" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+      <c r="D6" s="3">
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -916,8 +960,8 @@
       <c r="C7" s="3">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
+      <c r="D7" s="3">
+        <v>56</v>
       </c>
       <c r="E7" s="4">
         <f>C7/3</f>
@@ -944,8 +988,8 @@
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
+      <c r="D8" s="3">
+        <v>33</v>
       </c>
       <c r="E8" s="13">
         <f>C8/3</f>
@@ -967,8 +1011,14 @@
         <v>14</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21">
+        <f>SUM(C4:C8)</f>
+        <v>200</v>
+      </c>
+      <c r="D9" s="21">
+        <f>SUM(D4:D8)</f>
+        <v>254</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -998,6 +1048,10 @@
       <c r="D12" s="27">
         <f>95*B12</f>
         <v>95</v>
+      </c>
+      <c r="F12">
+        <f>D9/C9</f>
+        <v>1.27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,5 +1319,287 @@
     <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B219F9F2-A4CC-AD4F-A3F1-917E919B80E2}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44782</v>
+      </c>
+      <c r="C4" s="4">
+        <f>80*1.2</f>
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <f>C4/2.8</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="F4" s="40">
+        <v>150</v>
+      </c>
+      <c r="G4" s="42">
+        <v>50</v>
+      </c>
+      <c r="H4" s="44">
+        <f>E4*F4</f>
+        <v>5142.8571428571431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7">
+        <v>44796</v>
+      </c>
+      <c r="C5" s="4">
+        <f>51*1.2</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C5/2.8</f>
+        <v>21.857142857142858</v>
+      </c>
+      <c r="F5" s="40">
+        <v>150</v>
+      </c>
+      <c r="G5" s="42">
+        <v>50</v>
+      </c>
+      <c r="H5" s="44">
+        <f>E5*F5+G5</f>
+        <v>3328.5714285714284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>44841</v>
+      </c>
+      <c r="C6" s="4">
+        <f>34*1.2</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44862</v>
+      </c>
+      <c r="C7" s="4">
+        <f>56*1.2</f>
+        <v>67.2</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <f>C7/2.8</f>
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F7" s="40">
+        <v>150</v>
+      </c>
+      <c r="G7" s="42">
+        <v>50</v>
+      </c>
+      <c r="H7" s="44">
+        <f>E7*F7+G7</f>
+        <v>3650.0000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44876</v>
+      </c>
+      <c r="C8" s="4">
+        <f>30*1.2</f>
+        <v>36</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44890</v>
+      </c>
+      <c r="C9" s="13">
+        <f>33*1.2</f>
+        <v>39.6</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <f>C9/2.8</f>
+        <v>14.142857142857144</v>
+      </c>
+      <c r="F9" s="41">
+        <v>150</v>
+      </c>
+      <c r="G9" s="43">
+        <v>50</v>
+      </c>
+      <c r="H9" s="45">
+        <f>F9*E9+G9</f>
+        <v>2171.4285714285716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="47">
+        <f>SUM(C4:C9)</f>
+        <v>340.8</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22">
+        <f>SUM(H4:H9)</f>
+        <v>14292.857142857145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22">
+        <f>H10-292.86</f>
+        <v>13999.997142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>